--- a/data/fact_data/parbhani/Parbhani_Sec_Mar_19.xlsx
+++ b/data/fact_data/parbhani/Parbhani_Sec_Mar_19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/parbhani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CE19B9-BCE2-C547-AA64-DBAFF563F6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FACBCB-4CF2-EF48-B199-54ED6949B21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KE_Mar_19" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="87">
   <si>
     <t>Betadine Sol. 500ml              5%</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Gonablok 200mg 3*10's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          PRODUCT</t>
   </si>
   <si>
     <t>Myospaz D          5*10's</t>
@@ -284,16 +281,22 @@
     <t>Parbhani</t>
   </si>
   <si>
+    <t>Parbhanii</t>
+  </si>
+  <si>
     <t>unit_price</t>
   </si>
   <si>
     <t>Total_Price</t>
   </si>
   <si>
-    <t>shrei Laxmi venketesh</t>
+    <t>Mar</t>
   </si>
   <si>
-    <t>Mar</t>
+    <t>Shri Laxmi Venkatesh</t>
+  </si>
+  <si>
+    <t>product_name</t>
   </si>
 </sst>
 </file>
@@ -1874,9 +1877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A366A464-7A6E-AD4A-8397-F3201310EB20}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -1885,13 +1886,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>82</v>
@@ -1900,16 +1901,16 @@
         <v>83</v>
       </c>
       <c r="F1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1926,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -1952,13 +1953,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -1982,13 +1983,13 @@
         <v>3822</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -2012,13 +2013,13 @@
         <v>1032</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -2042,13 +2043,13 @@
         <v>650</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -2072,13 +2073,13 @@
         <v>244</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -2102,13 +2103,13 @@
         <v>1232</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -2132,13 +2133,13 @@
         <v>3363</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -2146,7 +2147,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2158,13 +2159,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -2172,7 +2173,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2184,13 +2185,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -2214,13 +2215,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -2244,13 +2245,13 @@
         <v>20862</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -2274,13 +2275,13 @@
         <v>4368</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -2288,7 +2289,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
@@ -2304,13 +2305,13 @@
         <v>98</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -2318,7 +2319,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>15</v>
@@ -2331,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -2345,7 +2346,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>315</v>
@@ -2361,13 +2362,13 @@
         <v>22050</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -2375,7 +2376,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>220</v>
@@ -2391,13 +2392,13 @@
         <v>10780</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -2405,7 +2406,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2417,13 +2418,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -2431,7 +2432,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>3</v>
@@ -2447,13 +2448,13 @@
         <v>1197</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -2461,7 +2462,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>5</v>
@@ -2477,13 +2478,13 @@
         <v>3095</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -2491,7 +2492,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2500,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -2530,13 +2531,13 @@
         <v>10208</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -2544,7 +2545,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -2560,13 +2561,13 @@
         <v>136</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -2590,13 +2591,13 @@
         <v>2640</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -2620,13 +2621,13 @@
         <v>5280</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -2634,7 +2635,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -2650,13 +2651,13 @@
         <v>830</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -2664,7 +2665,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -2680,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -2694,7 +2695,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>3</v>
@@ -2710,13 +2711,13 @@
         <v>1080</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -2724,7 +2725,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -2740,13 +2741,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -2754,7 +2755,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -2770,13 +2771,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -2784,7 +2785,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -2800,13 +2801,13 @@
         <v>789</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -2814,7 +2815,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -2830,13 +2831,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -2860,13 +2861,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -2874,7 +2875,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2883,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -2913,13 +2914,13 @@
         <v>1136</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -2943,13 +2944,13 @@
         <v>4101</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -2973,13 +2974,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -2987,7 +2988,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
@@ -3003,13 +3004,13 @@
         <v>168</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G39" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -3033,13 +3034,13 @@
         <v>2574</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -3063,13 +3064,13 @@
         <v>4074</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G41" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -3077,7 +3078,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -3093,13 +3094,13 @@
         <v>1270</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -3107,7 +3108,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -3123,13 +3124,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G43" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -3137,7 +3138,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>2</v>
@@ -3153,13 +3154,13 @@
         <v>1510</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -3167,7 +3168,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3176,13 +3177,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -3190,7 +3191,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3">
         <v>0</v>
@@ -3203,13 +3204,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -3233,13 +3234,13 @@
         <v>5904</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -3263,13 +3264,13 @@
         <v>157</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -3293,13 +3294,13 @@
         <v>223</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -3307,7 +3308,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3316,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -3330,7 +3331,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3">
         <v>4</v>
@@ -3346,13 +3347,13 @@
         <v>1936</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -3360,7 +3361,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3370,13 +3371,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -3384,7 +3385,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3">
         <v>16</v>
@@ -3400,13 +3401,13 @@
         <v>12304</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -3414,7 +3415,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3424,13 +3425,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -3438,7 +3439,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3">
         <v>5</v>
@@ -3454,13 +3455,13 @@
         <v>775</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G55" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -3468,7 +3469,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3478,13 +3479,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -3492,7 +3493,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
@@ -3508,13 +3509,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -3522,7 +3523,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -3538,13 +3539,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -3552,7 +3553,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -3568,13 +3569,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G59" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -3582,7 +3583,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -3598,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -3612,7 +3613,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -3628,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G61" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -3642,7 +3643,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3650,13 +3651,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -3664,7 +3665,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
@@ -3676,13 +3677,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G63" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -3690,7 +3691,7 @@
     </row>
     <row r="64" spans="1:9" ht="14">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -3702,13 +3703,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -3716,7 +3717,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -3728,13 +3729,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G65" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -3742,18 +3743,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -3761,7 +3762,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
         <v>9</v>
@@ -3773,13 +3774,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G67" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -3787,7 +3788,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3795,13 +3796,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -3809,7 +3810,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>2</v>
@@ -3821,13 +3822,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G69" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -3835,7 +3836,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>11</v>
@@ -3847,13 +3848,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -3861,7 +3862,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>138212</v>
@@ -3870,13 +3871,13 @@
         <v>47484</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G71" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -3892,25 +3893,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DC2B61-4217-A44E-B170-F7E9B5E915E9}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>82</v>
@@ -3919,16 +3920,16 @@
         <v>83</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3949,13 +3950,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -3979,13 +3980,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -4009,13 +4010,13 @@
         <v>1456</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -4035,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -4061,13 +4062,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -4087,13 +4088,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -4117,13 +4118,13 @@
         <v>1408</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -4147,13 +4148,13 @@
         <v>684</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -4161,7 +4162,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4173,13 +4174,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -4187,7 +4188,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4199,13 +4200,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -4225,13 +4226,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -4255,13 +4256,13 @@
         <v>183</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -4281,13 +4282,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -4295,7 +4296,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4307,13 +4308,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -4321,7 +4322,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4330,13 +4331,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -4344,7 +4345,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>53</v>
@@ -4360,13 +4361,13 @@
         <v>70</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -4374,7 +4375,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>68</v>
@@ -4390,13 +4391,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -4404,7 +4405,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4416,13 +4417,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -4430,7 +4431,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4442,13 +4443,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -4456,7 +4457,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4468,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -4482,7 +4483,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4491,13 +4492,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -4521,13 +4522,13 @@
         <v>5104</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -4535,7 +4536,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -4551,13 +4552,13 @@
         <v>136</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -4581,13 +4582,13 @@
         <v>240</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -4611,13 +4612,13 @@
         <v>0</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -4625,7 +4626,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -4641,13 +4642,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -4655,7 +4656,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -4669,13 +4670,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -4683,7 +4684,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>3</v>
@@ -4699,13 +4700,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -4713,7 +4714,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -4729,13 +4730,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -4743,7 +4744,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -4759,13 +4760,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -4773,7 +4774,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -4789,13 +4790,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -4803,7 +4804,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -4819,13 +4820,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -4849,13 +4850,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -4863,7 +4864,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4872,13 +4873,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -4902,13 +4903,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -4928,13 +4929,13 @@
         <v>0</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -4954,13 +4955,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -4968,7 +4969,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4980,13 +4981,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G39" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -5006,13 +5007,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -5032,13 +5033,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G41" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -5046,7 +5047,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -5062,13 +5063,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -5076,7 +5077,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -5092,13 +5093,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G43" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -5106,7 +5107,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -5122,13 +5123,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -5136,7 +5137,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -5145,13 +5146,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G45" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -5159,7 +5160,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -5168,13 +5169,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -5194,13 +5195,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G47" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -5220,13 +5221,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -5250,13 +5251,13 @@
         <v>669</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G49" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -5264,7 +5265,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -5273,13 +5274,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -5287,7 +5288,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3">
         <v>0</v>
@@ -5303,13 +5304,13 @@
         <v>3872</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G51" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -5317,7 +5318,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -5327,13 +5328,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -5341,7 +5342,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5353,13 +5354,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G53" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -5367,7 +5368,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5377,13 +5378,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -5391,7 +5392,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5403,13 +5404,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G55" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -5417,7 +5418,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5427,13 +5428,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -5441,7 +5442,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -5453,13 +5454,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G57" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -5467,7 +5468,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5479,13 +5480,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -5493,7 +5494,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5505,13 +5506,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G59" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -5519,7 +5520,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5531,13 +5532,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -5545,7 +5546,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -5557,13 +5558,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G61" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -5571,7 +5572,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5579,13 +5580,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -5593,7 +5594,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5601,13 +5602,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G63" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -5615,7 +5616,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -5623,13 +5624,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -5637,7 +5638,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -5645,13 +5646,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G65" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -5659,18 +5660,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -5678,7 +5679,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
         <v>5</v>
@@ -5690,13 +5691,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G67" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -5704,7 +5705,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -5712,13 +5713,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -5726,7 +5727,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -5738,13 +5739,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G69" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -5752,7 +5753,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -5764,13 +5765,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -5778,7 +5779,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>26287</v>
@@ -5787,13 +5788,13 @@
         <v>22726</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G71" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -5809,9 +5810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8803B3AD-3034-1048-B0AB-2AA2336E3FB4}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -5821,13 +5820,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>82</v>
@@ -5836,16 +5835,16 @@
         <v>83</v>
       </c>
       <c r="F1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5862,13 +5861,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -5888,13 +5887,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -5918,13 +5917,13 @@
         <v>4914</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -5944,13 +5943,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -5970,13 +5969,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -5996,13 +5995,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -6026,13 +6025,13 @@
         <v>2112</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -6056,13 +6055,13 @@
         <v>1767</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -6070,7 +6069,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -6086,13 +6085,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -6100,7 +6099,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -6116,13 +6115,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -6142,13 +6141,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -6172,13 +6171,13 @@
         <v>7747</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -6202,13 +6201,13 @@
         <v>2912</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -6216,7 +6215,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>5</v>
@@ -6232,13 +6231,13 @@
         <v>245</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -6246,7 +6245,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
@@ -6259,13 +6258,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -6273,7 +6272,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>230</v>
@@ -6289,13 +6288,13 @@
         <v>9730</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -6303,7 +6302,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>201</v>
@@ -6319,13 +6318,13 @@
         <v>2548</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -6333,7 +6332,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -6349,13 +6348,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -6363,7 +6362,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -6379,13 +6378,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -6393,7 +6392,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
@@ -6409,13 +6408,13 @@
         <v>4952</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -6423,7 +6422,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6432,13 +6431,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -6462,13 +6461,13 @@
         <v>5742</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -6476,7 +6475,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>5</v>
@@ -6492,13 +6491,13 @@
         <v>136</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -6522,13 +6521,13 @@
         <v>1680</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -6552,13 +6551,13 @@
         <v>4320</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -6566,7 +6565,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -6582,13 +6581,13 @@
         <v>1660</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -6596,7 +6595,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -6612,13 +6611,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -6626,7 +6625,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>4</v>
@@ -6642,13 +6641,13 @@
         <v>720</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -6656,7 +6655,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -6672,13 +6671,13 @@
         <v>269</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -6686,7 +6685,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
@@ -6702,13 +6701,13 @@
         <v>2532</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -6716,7 +6715,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -6732,13 +6731,13 @@
         <v>1578</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -6746,7 +6745,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -6762,13 +6761,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -6792,13 +6791,13 @@
         <v>1726</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -6806,7 +6805,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6815,13 +6814,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -6845,13 +6844,13 @@
         <v>1136</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -6875,13 +6874,13 @@
         <v>1367</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -6905,13 +6904,13 @@
         <v>4775</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -6919,7 +6918,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
@@ -6935,13 +6934,13 @@
         <v>168</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G39" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -6965,13 +6964,13 @@
         <v>2574</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -6995,13 +6994,13 @@
         <v>1358</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G41" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -7009,7 +7008,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>3</v>
@@ -7025,13 +7024,13 @@
         <v>2540</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -7039,7 +7038,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -7055,13 +7054,13 @@
         <v>1184</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G43" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -7069,7 +7068,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -7085,13 +7084,13 @@
         <v>3775</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -7099,7 +7098,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -7108,13 +7107,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G45" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -7122,7 +7121,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -7131,13 +7130,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -7161,13 +7160,13 @@
         <v>984</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G47" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -7191,13 +7190,13 @@
         <v>628</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -7221,13 +7220,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G49" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -7235,7 +7234,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -7244,13 +7243,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -7258,7 +7257,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3">
         <v>3</v>
@@ -7274,13 +7273,13 @@
         <v>1936</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G51" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -7288,7 +7287,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -7298,13 +7297,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -7312,7 +7311,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3">
         <v>11</v>
@@ -7328,13 +7327,13 @@
         <v>8459</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G53" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -7342,7 +7341,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -7352,13 +7351,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -7366,7 +7365,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3">
         <v>5</v>
@@ -7382,13 +7381,13 @@
         <v>775</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G55" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -7396,7 +7395,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -7406,13 +7405,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -7420,7 +7419,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
@@ -7436,13 +7435,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G57" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -7450,7 +7449,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -7466,13 +7465,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -7480,7 +7479,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -7496,13 +7495,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G59" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -7510,7 +7509,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -7526,13 +7525,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -7540,7 +7539,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -7556,13 +7555,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G61" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -7570,7 +7569,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -7578,13 +7577,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -7592,7 +7591,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
@@ -7604,13 +7603,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G63" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -7618,7 +7617,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -7630,13 +7629,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -7644,7 +7643,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -7656,13 +7655,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G65" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -7670,18 +7669,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -7689,7 +7688,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
         <v>8</v>
@@ -7701,13 +7700,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G67" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -7715,7 +7714,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>0</v>
@@ -7727,13 +7726,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -7741,7 +7740,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -7753,13 +7752,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G69" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -7767,7 +7766,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>6</v>
@@ -7779,13 +7778,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -7793,7 +7792,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>121410</v>
@@ -7802,13 +7801,13 @@
         <v>103326</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G71" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -7824,25 +7823,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81450CD-4BCC-3B48-951B-DD26CC02B66F}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>82</v>
@@ -7851,16 +7847,16 @@
         <v>83</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7877,13 +7873,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -7903,13 +7899,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -7933,13 +7929,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -7959,13 +7955,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -7989,13 +7985,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -8015,13 +8011,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -8045,13 +8041,13 @@
         <v>1056</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -8075,13 +8071,13 @@
         <v>1140</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -8089,7 +8085,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -8101,13 +8097,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -8115,7 +8111,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -8127,13 +8123,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -8157,13 +8153,13 @@
         <v>892</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -8187,13 +8183,13 @@
         <v>549</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -8217,13 +8213,13 @@
         <v>208</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -8231,7 +8227,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -8247,13 +8243,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -8261,7 +8257,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>11</v>
@@ -8274,13 +8270,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -8288,7 +8284,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>139</v>
@@ -8304,13 +8300,13 @@
         <v>5320</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -8318,7 +8314,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>186</v>
@@ -8334,13 +8330,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -8348,7 +8344,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8360,13 +8356,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -8374,7 +8370,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>18</v>
@@ -8390,13 +8386,13 @@
         <v>4389</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -8404,7 +8400,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -8416,13 +8412,13 @@
         <v>2476</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -8430,7 +8426,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8439,13 +8435,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -8469,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -8483,7 +8479,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -8499,13 +8495,13 @@
         <v>204</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -8529,13 +8525,13 @@
         <v>0</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -8559,13 +8555,13 @@
         <v>960</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -8573,7 +8569,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -8589,13 +8585,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -8603,7 +8599,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -8619,13 +8615,13 @@
         <v>3440</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -8633,7 +8629,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
@@ -8649,13 +8645,13 @@
         <v>1080</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -8663,7 +8659,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -8679,13 +8675,13 @@
         <v>538</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -8693,7 +8689,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -8709,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -8723,7 +8719,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>2</v>
@@ -8739,13 +8735,13 @@
         <v>789</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -8753,7 +8749,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -8769,13 +8765,13 @@
         <v>1730</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -8799,13 +8795,13 @@
         <v>1726</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -8813,7 +8809,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8822,13 +8818,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -8852,13 +8848,13 @@
         <v>1136</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -8882,13 +8878,13 @@
         <v>1367</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -8912,13 +8908,13 @@
         <v>3820</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -8926,7 +8922,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -8942,13 +8938,13 @@
         <v>1512</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G39" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -8968,13 +8964,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -8994,13 +8990,13 @@
         <v>1358</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G41" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -9008,7 +9004,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -9024,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -9038,7 +9034,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -9054,13 +9050,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G43" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -9068,7 +9064,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -9084,13 +9080,13 @@
         <v>2265</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -9098,7 +9094,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -9107,13 +9103,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G45" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -9121,7 +9117,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -9130,13 +9126,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -9160,13 +9156,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G47" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -9190,13 +9186,13 @@
         <v>471</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -9220,13 +9216,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G49" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -9234,7 +9230,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -9243,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -9257,7 +9253,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3">
         <v>0</v>
@@ -9273,13 +9269,13 @@
         <v>484</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G51" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -9287,7 +9283,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -9297,13 +9293,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -9311,7 +9307,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3">
         <v>2</v>
@@ -9327,13 +9323,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G53" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -9341,7 +9337,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -9351,13 +9347,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -9365,7 +9361,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
@@ -9381,13 +9377,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G55" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -9395,7 +9391,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -9405,13 +9401,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -9419,7 +9415,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -9431,13 +9427,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G57" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -9445,7 +9441,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -9457,13 +9453,13 @@
         <v>472</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -9471,7 +9467,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -9483,13 +9479,13 @@
         <v>672</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G59" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -9497,7 +9493,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -9509,13 +9505,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -9523,7 +9519,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -9535,13 +9531,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G61" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -9549,7 +9545,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -9557,13 +9553,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -9571,7 +9567,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -9579,13 +9575,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G63" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -9593,7 +9589,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -9601,13 +9597,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -9615,7 +9611,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -9623,13 +9619,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G65" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -9637,18 +9633,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -9656,7 +9652,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
         <v>3</v>
@@ -9668,13 +9664,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G67" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -9682,7 +9678,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -9690,13 +9686,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -9704,7 +9700,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -9716,13 +9712,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G69" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -9730,7 +9726,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>11</v>
@@ -9742,13 +9738,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -9756,7 +9752,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>71188</v>
@@ -9765,13 +9761,13 @@
         <v>146710</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G71" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -9787,26 +9783,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E5807C-23FC-5B42-AF19-B80F265C4F84}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>82</v>
@@ -9815,16 +9808,16 @@
         <v>83</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -9841,13 +9834,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -9867,13 +9860,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -9897,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -9923,13 +9916,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -9949,13 +9942,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -9975,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -10001,13 +9994,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -10027,13 +10020,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -10041,7 +10034,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -10053,13 +10046,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -10067,7 +10060,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -10079,13 +10072,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -10105,13 +10098,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -10135,13 +10128,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -10161,13 +10154,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -10175,7 +10168,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -10187,13 +10180,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -10201,7 +10194,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -10210,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -10224,7 +10217,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -10240,13 +10233,13 @@
         <v>0</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -10254,7 +10247,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -10266,13 +10259,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -10280,7 +10273,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -10292,13 +10285,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -10306,7 +10299,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -10318,13 +10311,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -10332,7 +10325,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -10344,13 +10337,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -10358,7 +10351,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -10367,13 +10360,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -10395,13 +10388,13 @@
         <v>0</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -10409,7 +10402,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -10425,13 +10418,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -10455,13 +10448,13 @@
         <v>0</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -10485,13 +10478,13 @@
         <v>0</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -10499,7 +10492,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -10511,13 +10504,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -10525,7 +10518,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -10537,13 +10530,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -10551,7 +10544,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -10563,13 +10556,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -10577,7 +10570,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -10589,13 +10582,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -10603,7 +10596,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -10615,13 +10608,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -10629,7 +10622,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -10641,13 +10634,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -10655,7 +10648,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -10667,13 +10660,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G33" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -10693,13 +10686,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -10707,7 +10700,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10716,13 +10709,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -10742,13 +10735,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -10768,13 +10761,13 @@
         <v>0</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -10794,13 +10787,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -10808,7 +10801,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -10824,13 +10817,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G39" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -10850,13 +10843,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -10876,13 +10869,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G41" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -10890,7 +10883,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -10902,13 +10895,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -10916,7 +10909,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -10928,13 +10921,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G43" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -10942,7 +10935,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -10954,13 +10947,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -10968,7 +10961,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -10977,13 +10970,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G45" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -10991,7 +10984,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -11000,13 +10993,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -11026,13 +11019,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G47" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -11052,13 +11045,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -11078,13 +11071,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G49" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -11092,7 +11085,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -11101,13 +11094,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -11115,7 +11108,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -11127,13 +11120,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G51" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -11141,7 +11134,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -11151,13 +11144,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -11165,7 +11158,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -11177,13 +11170,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G53" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -11191,7 +11184,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -11201,13 +11194,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -11215,7 +11208,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -11227,13 +11220,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G55" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -11241,7 +11234,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -11251,13 +11244,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -11265,7 +11258,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -11277,13 +11270,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G57" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -11291,7 +11284,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -11303,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -11317,7 +11310,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -11329,13 +11322,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G59" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -11343,7 +11336,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -11355,13 +11348,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -11369,7 +11362,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -11381,13 +11374,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G61" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -11395,7 +11388,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -11403,13 +11396,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -11417,7 +11410,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -11425,13 +11418,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G63" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -11439,7 +11432,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -11447,13 +11440,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -11461,7 +11454,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -11469,13 +11462,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G65" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -11483,18 +11476,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -11502,7 +11495,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -11510,13 +11503,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G67" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -11524,7 +11517,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -11532,13 +11525,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -11546,7 +11539,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -11554,13 +11547,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G69" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -11568,7 +11561,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -11576,13 +11569,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -11590,7 +11583,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>0</v>
@@ -11599,13 +11592,13 @@
         <v>0</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G71" s="25" t="s">
         <v>81</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I71">
         <v>2019</v>
